--- a/result/with_base/124/arousal/s13_3.xlsx
+++ b/result/with_base/124/arousal/s13_3.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8474999964237213</v>
+        <v>0.8498883843421936</v>
       </c>
       <c r="C2" t="n">
-        <v>41747.541015625</v>
+        <v>11289.71630859375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8509090922095559</v>
+        <v>0.8689600825309753</v>
       </c>
       <c r="E2" t="n">
-        <v>41745.296875</v>
+        <v>11287.06864659926</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8575000166893005</v>
+        <v>0.8677455484867096</v>
       </c>
       <c r="C3" t="n">
-        <v>40966.837890625</v>
+        <v>10977.11376953125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8721590800718828</v>
+        <v>0.9000131312538596</v>
       </c>
       <c r="E3" t="n">
-        <v>40963.24360795454</v>
+        <v>10975.50275735294</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8650000095367432</v>
+        <v>0.86328125</v>
       </c>
       <c r="C4" t="n">
-        <v>40192.763671875</v>
+        <v>10674.0166015625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9168181798674844</v>
+        <v>0.9120273099226111</v>
       </c>
       <c r="E4" t="n">
-        <v>40189.37642045454</v>
+        <v>10671.34300321691</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8975000083446503</v>
+        <v>0.8716517984867096</v>
       </c>
       <c r="C5" t="n">
-        <v>39430.978515625</v>
+        <v>10375.76318359375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9229545430703596</v>
+        <v>0.9159007352941176</v>
       </c>
       <c r="E5" t="n">
-        <v>39428.33806818182</v>
+        <v>10373.40952435662</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8833705484867096</v>
       </c>
       <c r="C6" t="n">
-        <v>38677.439453125</v>
+        <v>10083.39453125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9546590826728127</v>
+        <v>0.9391412805108463</v>
       </c>
       <c r="E6" t="n">
-        <v>38674.49254261364</v>
+        <v>10080.99109604779</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.8878348171710968</v>
       </c>
       <c r="C7" t="n">
-        <v>37939.607421875</v>
+        <v>9797.515625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9459090828895569</v>
+        <v>0.9564075645278481</v>
       </c>
       <c r="E7" t="n">
-        <v>37934.76846590909</v>
+        <v>9795.76912913603</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9006696343421936</v>
       </c>
       <c r="C8" t="n">
-        <v>37208.3046875</v>
+        <v>9519.61669921875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.964318183335391</v>
+        <v>0.9646139705882353</v>
       </c>
       <c r="E8" t="n">
-        <v>37204.9765625</v>
+        <v>9517.526194852941</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9051339328289032</v>
       </c>
       <c r="C9" t="n">
-        <v>36491.396484375</v>
+        <v>9248.361328125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.96875</v>
+        <v>0.9610031527631423</v>
       </c>
       <c r="E9" t="n">
-        <v>36487.94637784091</v>
+        <v>9246.124253216913</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9175000190734863</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C10" t="n">
-        <v>35784.916015625</v>
+        <v>8983.1083984375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9788636511022394</v>
+        <v>0.9763655452167287</v>
       </c>
       <c r="E10" t="n">
-        <v>35782.83238636364</v>
+        <v>8981.267405790441</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8949999809265137</v>
+        <v>0.9095982015132904</v>
       </c>
       <c r="C11" t="n">
-        <v>35094.431640625</v>
+        <v>8724.99462890625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9661363580010154</v>
+        <v>0.9671743687461404</v>
       </c>
       <c r="E11" t="n">
-        <v>35090.86505681818</v>
+        <v>8723.196174172794</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8974999785423279</v>
+        <v>0.91796875</v>
       </c>
       <c r="C12" t="n">
-        <v>34413.369140625</v>
+        <v>8472.970703125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9747727459127252</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E12" t="n">
-        <v>34410.06214488636</v>
+        <v>8471.574103860294</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9425000250339508</v>
+        <v>0.9224330484867096</v>
       </c>
       <c r="C13" t="n">
-        <v>33742.849609375</v>
+        <v>8227.61962890625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9855681928721342</v>
+        <v>0.9820115531192106</v>
       </c>
       <c r="E13" t="n">
-        <v>33741.14133522727</v>
+        <v>8226.494370404413</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9140625</v>
       </c>
       <c r="C14" t="n">
-        <v>33086.845703125</v>
+        <v>7989.256103515625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9860227378931913</v>
+        <v>0.976431197979871</v>
       </c>
       <c r="E14" t="n">
-        <v>33084.50745738636</v>
+        <v>7987.847541360294</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9135044515132904</v>
       </c>
       <c r="C15" t="n">
-        <v>32441.9189453125</v>
+        <v>7756.3369140625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9817045547745444</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E15" t="n">
-        <v>32439.75656960227</v>
+        <v>7755.236931295956</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C16" t="n">
-        <v>31808.958984375</v>
+        <v>7529.966552734375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9867045500061729</v>
+        <v>0.9847689060603871</v>
       </c>
       <c r="E16" t="n">
-        <v>31806.53497869318</v>
+        <v>7528.907858455882</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="C17" t="n">
-        <v>31187.3017578125</v>
+        <v>7310.330810546875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9878409179774198</v>
+        <v>0.9797794117647058</v>
       </c>
       <c r="E17" t="n">
-        <v>31184.86292613636</v>
+        <v>7308.614947150735</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9140625</v>
       </c>
       <c r="C18" t="n">
-        <v>30576.5419921875</v>
+        <v>7095.32861328125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9888636469841003</v>
+        <v>0.9826680667260114</v>
       </c>
       <c r="E18" t="n">
-        <v>30574.54651988636</v>
+        <v>7094.102740119485</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C19" t="n">
-        <v>29976.7021484375</v>
+        <v>6886.392578125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E19" t="n">
-        <v>29975.31551846591</v>
+        <v>6885.310230928309</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.945000022649765</v>
+        <v>0.921875</v>
       </c>
       <c r="C20" t="n">
-        <v>29388.8076171875</v>
+        <v>6683.201171875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9920454621315002</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E20" t="n">
-        <v>29387.19087357954</v>
+        <v>6682.234001608456</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9425000250339508</v>
+        <v>0.92578125</v>
       </c>
       <c r="C21" t="n">
-        <v>28812.2421875</v>
+        <v>6485.867431640625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9889705882352942</v>
       </c>
       <c r="E21" t="n">
-        <v>28810.06161221591</v>
+        <v>6484.619255514706</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.945000022649765</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C22" t="n">
-        <v>28245.25</v>
+        <v>6293.345947265625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E22" t="n">
-        <v>28243.37890625</v>
+        <v>6292.319106158088</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.92578125</v>
       </c>
       <c r="C23" t="n">
-        <v>27689.1796875</v>
+        <v>6106.430419921875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9836528371362125</v>
       </c>
       <c r="E23" t="n">
-        <v>27687.47283380682</v>
+        <v>6105.234920726103</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9296875</v>
       </c>
       <c r="C24" t="n">
-        <v>27143.2001953125</v>
+        <v>5924.087646484375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E24" t="n">
-        <v>27141.79900568182</v>
+        <v>5923.162626378677</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9296875</v>
       </c>
       <c r="C25" t="n">
-        <v>26607.890625</v>
+        <v>5747.129150390625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E25" t="n">
-        <v>26606.33860085227</v>
+        <v>5746.131950827206</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C26" t="n">
-        <v>26082.4951171875</v>
+        <v>5574.548828125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9892045530405912</v>
+        <v>0.9962578766486224</v>
       </c>
       <c r="E26" t="n">
-        <v>26080.91015625</v>
+        <v>5573.929227941177</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9224330484867096</v>
       </c>
       <c r="C27" t="n">
-        <v>25566.220703125</v>
+        <v>5407.356201171875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E27" t="n">
-        <v>25565.18075284091</v>
+        <v>5406.484059053309</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.945000022649765</v>
+        <v>0.9296875</v>
       </c>
       <c r="C28" t="n">
-        <v>25060.8935546875</v>
+        <v>5244.374755859375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.9921875</v>
       </c>
       <c r="E28" t="n">
-        <v>25059.22674005682</v>
+        <v>5243.637838924632</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C29" t="n">
-        <v>24563.76171875</v>
+        <v>5086.081298828125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E29" t="n">
-        <v>24562.62144886364</v>
+        <v>5085.27197265625</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9425000250339508</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C30" t="n">
-        <v>24076.873046875</v>
+        <v>4932.2333984375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9922727346420288</v>
+        <v>0.9815519942956812</v>
       </c>
       <c r="E30" t="n">
-        <v>24075.36363636364</v>
+        <v>4931.327033547794</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.91796875</v>
       </c>
       <c r="C31" t="n">
-        <v>23598.55078125</v>
+        <v>4782.41455078125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9898240531192106</v>
       </c>
       <c r="E31" t="n">
-        <v>23597.18927556818</v>
+        <v>4781.55135569853</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C32" t="n">
-        <v>23129.044921875</v>
+        <v>4636.607177734375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9963235294117647</v>
       </c>
       <c r="E32" t="n">
-        <v>23127.92542613636</v>
+        <v>4635.935776654412</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9391741156578064</v>
       </c>
       <c r="C33" t="n">
-        <v>22669.07421875</v>
+        <v>4494.97265625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9981617647058824</v>
       </c>
       <c r="E33" t="n">
-        <v>22667.55823863636</v>
+        <v>4494.399758731618</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C34" t="n">
-        <v>22216.8125</v>
+        <v>4357.394287109375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9977022058823529</v>
       </c>
       <c r="E34" t="n">
-        <v>22215.75816761364</v>
+        <v>4356.809426700368</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C35" t="n">
-        <v>21773.87890625</v>
+        <v>4223.81103515625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E35" t="n">
-        <v>21772.51491477273</v>
+        <v>4223.06632008272</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9024999737739563</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C36" t="n">
-        <v>21339.552734375</v>
+        <v>4093.567749023438</v>
       </c>
       <c r="D36" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9980961119427401</v>
       </c>
       <c r="E36" t="n">
-        <v>21337.60635653409</v>
+        <v>4093.051772173713</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9175000190734863</v>
+        <v>0.91796875</v>
       </c>
       <c r="C37" t="n">
-        <v>20912.384765625</v>
+        <v>3967.391235351562</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9869353981579051</v>
       </c>
       <c r="E37" t="n">
-        <v>20910.87002840909</v>
+        <v>3966.748161764706</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C38" t="n">
-        <v>20493.712890625</v>
+        <v>3844.496215820312</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E38" t="n">
-        <v>20492.20596590909</v>
+        <v>3843.902501723346</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C39" t="n">
-        <v>20082.38671875</v>
+        <v>3725.189331054688</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E39" t="n">
-        <v>20081.39985795454</v>
+        <v>3724.561724494485</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C40" t="n">
-        <v>19679.423828125</v>
+        <v>3609.42578125</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9898240531192106</v>
       </c>
       <c r="E40" t="n">
-        <v>19678.318359375</v>
+        <v>3608.610509535846</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C41" t="n">
-        <v>19283.736328125</v>
+        <v>3496.634033203125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9694065136068007</v>
       </c>
       <c r="E41" t="n">
-        <v>19282.84996448864</v>
+        <v>3495.998219209559</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.921875</v>
       </c>
       <c r="C42" t="n">
-        <v>18895.763671875</v>
+        <v>3387.0654296875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9896927510990816</v>
       </c>
       <c r="E42" t="n">
-        <v>18894.82830255682</v>
+        <v>3386.436810661765</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.945000022649765</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C43" t="n">
-        <v>18515.2958984375</v>
+        <v>3280.48193359375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E43" t="n">
-        <v>18514.14488636364</v>
+        <v>3280.09956629136</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9224330484867096</v>
       </c>
       <c r="C44" t="n">
-        <v>18141.521484375</v>
+        <v>3177.309936523438</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9845719547832713</v>
       </c>
       <c r="E44" t="n">
-        <v>18140.62748579546</v>
+        <v>3176.796774471507</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.91796875</v>
       </c>
       <c r="C45" t="n">
-        <v>17775.158203125</v>
+        <v>3076.999145507812</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9755120803328121</v>
       </c>
       <c r="E45" t="n">
-        <v>17774.18998579546</v>
+        <v>3076.461454503677</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C46" t="n">
-        <v>17416.08984375</v>
+        <v>2979.273803710938</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E46" t="n">
-        <v>17414.71466619318</v>
+        <v>2978.90336339614</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.945000022649765</v>
+        <v>0.9391741156578064</v>
       </c>
       <c r="C47" t="n">
-        <v>17063.0400390625</v>
+        <v>2884.578125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E47" t="n">
-        <v>17062.02414772727</v>
+        <v>2884.215202780331</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C48" t="n">
-        <v>16717.0009765625</v>
+        <v>2792.588623046875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E48" t="n">
-        <v>16716.03657670454</v>
+        <v>2792.270708869485</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9397321343421936</v>
       </c>
       <c r="C49" t="n">
-        <v>16377.42041015625</v>
+        <v>2703.27490234375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E49" t="n">
-        <v>16376.57572798295</v>
+        <v>2702.968462775735</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9140625</v>
       </c>
       <c r="C50" t="n">
-        <v>16044.92529296875</v>
+        <v>2616.6630859375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9906818270683289</v>
+        <v>0.9790572489009184</v>
       </c>
       <c r="E50" t="n">
-        <v>16043.61416903409</v>
+        <v>2616.291719324448</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,817 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C51" t="n">
-        <v>15717.47216796875</v>
+        <v>2532.439453125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.981026786215165</v>
       </c>
       <c r="E51" t="n">
-        <v>15716.86070667614</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9275000095367432</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15397.2861328125</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15396.37508877841</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15082.87646484375</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15082.00470525568</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14774.205078125</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14773.60520241477</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14471.67431640625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14471.05504261364</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14174.90087890625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14174.27565696023</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13884.08056640625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9915909171104431</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13883.19877485795</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13598.18408203125</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13597.60555752841</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13317.95263671875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13317.49467329545</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13043.3876953125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13042.75692471591</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12773.7255859375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12773.24556107955</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12509.47119140625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12508.9208984375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12250.06201171875</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12249.63884943182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11995.775390625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11995.32599431818</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9425000250339508</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11746.53564453125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11745.91965553977</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11501.78125</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9979545474052429</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11501.31294389205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11261.9404296875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11261.39657315341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11026.4462890625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11026.09037642045</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9275000095367432</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10795.99560546875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10795.33975497159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10569.45263671875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10569.02130681818</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10347.5244140625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10347.08274147727</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10130.22021484375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9932954582301053</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10129.47221235795</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9916.43212890625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9916.02938565341</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9707.43896484375</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9706.757546164772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9501.81884765625</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9501.527698863636</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.945000022649765</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9300.89599609375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9300.329634232954</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9103.36767578125</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9103.012162642046</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8909.85107421875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8909.554154829546</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8720.189453125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8719.858753551136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8534.13232421875</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8533.86221590909</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8351.8037109375</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8351.523171164772</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2682926829268293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5121951219512195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5121951219512195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9024390243902439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.02010050251256281</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9024390243902439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.02010050251256281</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.926829268292683</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.1306532663316583</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.926829268292683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1306532663316583</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1758793969849246</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1758793969849246</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.975609756097561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.4422110552763819</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.975609756097561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.4422110552763819</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9792866772888834</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9567348939821056</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9567348939821056</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8844221105527639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9567348939821056</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9798994974874372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9567348939821056</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9798994974874372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9567348939821056</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9949748743718593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.4878048780487805</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9567348939821056</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9949748743718593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.4878048780487805</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9567348939821056</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9567348939821056</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>2532.118939568015</v>
       </c>
     </row>
   </sheetData>
